--- a/Genes_of_interest_TAN_excel.xlsx
+++ b/Genes_of_interest_TAN_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0fe7511e01eadebe/Academic/R_coding/ResearchProject1/CardiomyopathyGroup2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:40009_{A05F3F2F-EBB3-4D1B-9A3F-D4F1AB1CAFF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{50C8B007-1294-41F7-940C-884F490FF142}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:40009_{A05F3F2F-EBB3-4D1B-9A3F-D4F1AB1CAFF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{47B82D54-F64D-4338-A18B-A4BE1CFC1C8F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1430,7 +1430,7 @@
   <dimension ref="A1:AX13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="3" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="b">
-        <f>IF(C3&gt;3,TRUE,FALSE)</f>
+        <f t="shared" ref="A2:A13" si="0">IF(C3&gt;3,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1911,7 +1911,7 @@
     </row>
     <row r="4" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="b">
-        <f>IF(C4&gt;3,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1995,7 +1995,7 @@
     </row>
     <row r="5" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="b">
-        <f>IF(C5&gt;3,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -2079,7 +2079,7 @@
     </row>
     <row r="6" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="b">
-        <f>IF(C6&gt;3,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -2163,7 +2163,7 @@
     </row>
     <row r="7" spans="1:50" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="b">
-        <f>IF(C7&gt;3,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -2316,7 +2316,7 @@
     </row>
     <row r="8" spans="1:50" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="b">
-        <f>IF(C8&gt;3,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -2400,7 +2400,7 @@
     </row>
     <row r="9" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="b">
-        <f>IF(C9&gt;3,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -2484,7 +2484,7 @@
     </row>
     <row r="10" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="b">
-        <f>IF(C10&gt;3,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -2634,7 +2634,7 @@
     </row>
     <row r="11" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="b">
-        <f>IF(C11&gt;3,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -2718,7 +2718,7 @@
     </row>
     <row r="12" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="b">
-        <f>IF(C12&gt;3,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -2802,7 +2802,7 @@
     </row>
     <row r="13" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="b">
-        <f>IF(C13&gt;3,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B13" s="12" t="s">
